--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\H5_influenza_antibody_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BE109-663D-473C-824F-AC8257B40E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BB11C-AE39-49D7-8FB9-ED3512760FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>antibody_id</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>random surface, 0.25</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114</t>
+  </si>
+  <si>
+    <t>`1024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</t>
   </si>
 </sst>
 </file>
@@ -717,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233BCF53-D817-C044-893D-E154645C42FD}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G13:G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -899,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,8 +923,8 @@
     <col min="10" max="10" width="26.875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.875" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="37.875" style="6" customWidth="1"/>
     <col min="15" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
@@ -966,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
@@ -1000,9 +1006,16 @@
       <c r="K2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="7" t="str">
+        <f>_xlfn.CONCAT(L2,REPLACE(M2,1,1,""))</f>
+        <v>26,27,28,29,30,31,32,33,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,1141024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -1065,7 +1078,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\H5_influenza_antibody_modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BB11C-AE39-49D7-8FB9-ED3512760FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04AF41-240C-437D-A9ED-A10F013D5A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\H5_influenza_antibody_modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Influenza_H5-Antibody_Predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD04AF41-240C-437D-A9ED-A10F013D5A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF1037-2394-4848-9A80-D9F90D27D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="44800" windowHeight="22940" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>antibody_id</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>`1024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</t>
+  </si>
+  <si>
+    <t>antibody_species</t>
+  </si>
+  <si>
+    <t>human</t>
   </si>
 </sst>
 </file>
@@ -723,20 +729,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233BCF53-D817-C044-893D-E154645C42FD}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="27" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="208.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="207" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -819,7 +825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>_xlfn.CONCAT(B2,"__",C2)</f>
         <v>FLD194__EPI1650</v>
@@ -857,7 +863,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>_xlfn.CONCAT(B3,"__",C3)</f>
         <v>FLD194__EPI4795</v>
@@ -903,32 +909,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="48.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26" style="11" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.25" style="6" customWidth="1"/>
-    <col min="14" max="14" width="37.875" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="6"/>
+    <col min="3" max="4" width="14.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.1640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="48.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26" style="11" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="37.83203125" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,43 +942,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
@@ -980,94 +989,100 @@
         <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="7" t="str">
-        <f>_xlfn.CONCAT(L2,REPLACE(M2,1,1,""))</f>
+      <c r="O2" s="7" t="str">
+        <f>_xlfn.CONCAT(M2,REPLACE(N2,1,1,""))</f>
         <v>26,27,28,29,30,31,32,33,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,1141024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4ADB250A-E579-42D3-A156-B66CF196BD00}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4ADB250A-E579-42D3-A156-B66CF196BD00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1078,22 +1093,22 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/Influenza_H5-Antibody_Predictions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Documents/GitHub/Influenza_H5-Antibody_Predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF1037-2394-4848-9A80-D9F90D27D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA7883-750B-234F-B1F1-AAAA2BA46D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="44800" windowHeight="22940" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="72960" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
   <si>
     <t>antibody_id</t>
   </si>
@@ -254,13 +254,187 @@
   </si>
   <si>
     <t>human</t>
+  </si>
+  <si>
+    <t>H5.3</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4XRC</t>
+  </si>
+  <si>
+    <t>4xrc</t>
+  </si>
+  <si>
+    <t>KPLILRDCSVAGWLLGNPMCDEFINVPEWSYIVEKANPVNDLCYPGDFNDYEELKHLLSRINHFEKIQIIPKSSWSSHEASLGVSSACPYQGKSSFFRNVVWLIKKNSAYPTIKRSYNNTNQEDLLVLWGIHHPNDAAEQTKLYQNPTTYISVGTSTLNQRLVPRIATRSKVNGLSSRMEFFWTILKPNDAINFESNGNFIAPEYAYKIVKK</t>
+  </si>
+  <si>
+    <t>QVQLQESGPGLVKPSGTVSLTCAVSGGSISSSYWWSWVRQPPGKGLEWIGEIYHSGNTNYNPSLKSRVTISVDKSKNLFSLKLSSVTAADTAVYYCARVALFDILTGGWFDPWGQGTLVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKRVELKTPT</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/H5.3/4xrc_chainsAandB.pdb</t>
+  </si>
+  <si>
+    <t>65C6</t>
+  </si>
+  <si>
+    <t>Not specified, likely IgG, derived from PBMC of vaccinated donors</t>
+  </si>
+  <si>
+    <t>IgG (likely), from memory B cells</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/5DUM</t>
+  </si>
+  <si>
+    <t>5dum</t>
+  </si>
+  <si>
+    <t>EIVLTQSPLTLSVSPGERATLSCRASQSVSSNLAWYQQMPGQAPRLLIYGASTRATGIPARLSGSASGTEFTLTISSLQSEDFAVYYCQQYNNWPYTFGQGTKLEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>EVQLVQSGAEVKKPGESLRISCKGFAYSSTYFWISWVRQMPGKGLEWMGRIDPTDSYINYSPSFQGHVTISVDRSISTVYLQWSSLKASDTAMYYCAYHRRGHFYGSGSAWDWFESWGQGTLVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVESASCDKTHTCP</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/65C6/5dum_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>100F4</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/5DUR</t>
+  </si>
+  <si>
+    <t>5dur</t>
+  </si>
+  <si>
+    <t>QLQLQESGLGLVKPSETLSLTCTVSGDSVSSGSYYWSWLRQPPGKGLEWIGNMHGSGHTNYNPSLKSRVTITPDTSKNHFSLRLSSVTAADTAVYYCARALLTTVTTFEYWGQGTLVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKSCDKTHTCP</t>
+  </si>
+  <si>
+    <t>QSALTQPPSVSGAPGQRVTIPCTGGSSNIGAGYSVHWYQQLPGTAPKLLIYGSNSRPSGVPDRFSGSKSGTSASLAITGLRPEDEADYYCQSYDSSLSGSQVFGAGTRVTVLGQPKANPTVTLFPPSSEELQANKATLVCLISDFYPGAVTVAWKADGSPVKAGVETTTPSKQSNNKYAASSYLSLTPEQWKSHRSYSCQVTHEGSTVEKTVAPTECS</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/100F4/5dur_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>3C11</t>
+  </si>
+  <si>
+    <t>6iuv</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/6IUV</t>
+  </si>
+  <si>
+    <t>QVQLVQSGAEVKETGESLNISCKVSGNNFPSYYISWVRQMPGNGLEWMGRIDPSDSDTNYRPSFQGHVTISADKSTSTAYLQWRSLKASDTAMYYCARRATYYYGSGSYFDAFDIWGQGTMVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKSC</t>
+  </si>
+  <si>
+    <t>EIVMTQSPLTLPVTPGAPASISCRSSQSLLHSDGYNYLDWYLQKPGQSPQLLIYLGSHRASGVPDRFSGSGSGTDFTLKISRVEAEDVGVYYCMQALQTPDFGQGTRLEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/3C11/6IUV_chainsAandB.pdb</t>
+  </si>
+  <si>
+    <t>AVFluIgG01</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/6IUT</t>
+  </si>
+  <si>
+    <t>6iut</t>
+  </si>
+  <si>
+    <t>AVLTQPASVSGSPGQSITISCTGTSSDVGDYNYVSWYQQHPGKAPTLMIYDVNKRPSGDSNRFSGSKSGNTASLTISGLQAEDEADYYCSSYTSSNTWVFGGGTKLEIKRTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>VQLQESGPGLVKPSETLSLTCTVSGGSINSYYWSWIRQPPGKGLEWIGYLFDSGSTKYNPSLTSRVTISVDTSKNQFSLKLSSVTAADTAVYYCARGFWGLDGFDIWGQGTTVTVSSASTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKS</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/AVFluIgG01/6IUT_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>FLD21.140</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/6A67</t>
+  </si>
+  <si>
+    <t>6a67</t>
+  </si>
+  <si>
+    <t>QSVLTQPPSASGTPGQRVTISCSGSTSNIGSNAVNWYQQLPGTAPKLLIYSNNQRPSGVPDRFSGSKSGTSASLAISGLQSEDEADYYCAAWDDSLSGSWVFGGGTKLTVLGQPKANPTVTLFPPSSEELQANKATLVCLISDFYPGAVTVAWKADGSPVKAGVETTKPSKQSNNKYAASSYLSLTPEQWKSHRSYSCQVTHEGSTVEKTVAPTECS</t>
+  </si>
+  <si>
+    <t>DGVKPLILRDCSVAGWLLGNPMCDEFINVPEWSYIVEKANPVNDLCYPGDFNDYEELKHLLSRINHFEKIQIIPKSSWSSHEASLGVSSACPYQRKSSFFRNVVWLIKKNSTYPTIKRSYNNTNQEDLLVLWGIHHPNDAAEQTKLYQNPTTYISVGTSTLNQRLVPRIATRSKVNGQSGRMEFFWTILKPNDAINFESNGNFIAPEYAYKIVKKGDSTIMKSEHHHHHH</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/FLD21.140/6a67_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>H5M9</t>
+  </si>
+  <si>
+    <t>mice</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/4MHH</t>
+  </si>
+  <si>
+    <t>4mhh</t>
+  </si>
+  <si>
+    <t>EVHLQQSGPELVKPGASVKMSCKTSGYTFTEYTIHWMKQSHGKSLEWIGGIFPNNGDTTYNQKFKVRATLTVGRSSSTAYMDLRSLTSEDSAVYYCVRNYGSSYGYFDVWGAGTTVTVSSAKTTPPSVYPLAPGSAAQTNSMVTLGCLVKGYFPEPVTVTWNSGSLSSGVHTFPAVLQSDLYTLSSSVTVPSSTWPSETVTCNVAHPASSTKVDKKIVPRDC</t>
+  </si>
+  <si>
+    <t>DIVLTQSPGSLTVSLGQRATISCRASESVDNFGKSFMHWYQQKPGQSPKLLIYRASNREFGIPARFNGSGSGTDFALTINPVEADDVATYFCQQSNEDPRTFGGGTKLEIKRADAAPTVSIFPPSSEQLTSGGASVVCFLNNFYPKDINVKWKIDGSERQNGVLNSWTDQDSKDSTYSMSSTLTLTKDEYERHNSYTCEATHKTSTSPIVKSFNRNEC</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/H5M9/4MHH_chainsAandB.pdb</t>
+  </si>
+  <si>
+    <t>13D4</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/6a0z</t>
+  </si>
+  <si>
+    <t>6a0z</t>
+  </si>
+  <si>
+    <t>DIVMTQSQKFMSASVGDRVSVTCKASQNVGTHLAWYQQKPGQSPKALIYSASYRYSGVPDRFTGSGSGTDFTLTISNVQSGDLADYFCQQYNNFPLTFGAGTKLEIKRADAAPTVSIFPPSSEQLTSGGASVVCFLNNFYPKDINVKWKIDGSERQNGVLNSWTDQDSKDSTYSMSSTLTLTRDEYERHNSYTCEATHKTSTSPIVKSFNRNEC</t>
+  </si>
+  <si>
+    <t>QVQLQQSGAELMKPGASVKISCKATGYTFSGHWIEWVKQRPGHGLEWIGEILPGSGNIHYNEKFKGKATFAADTSSNTAYMQLSSLTSEDSAVYYCARLGTTAVERDWYFDVWGAGTTVTVSLADPSAPSVYPLAPVCGDTTGSSVTLGCLVKGYFPEPVTLTWNSGSLSSGVHTFPAVLQSDLYTLSSSVTVTSSTWPSQSITCNVAHPASSTKVDKKIEPRG</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/13D4/6A0Z_chainsHandL.pdb</t>
+  </si>
+  <si>
+    <t>https://www.rcsb.org/structure/5DUP</t>
+  </si>
+  <si>
+    <t>5dup</t>
+  </si>
+  <si>
+    <t>EVQLLESGGGLVQPGGSLRVSCTNSGFTFSNYAMSWVRQAPGKGLEWVSAISGNGGSGTYYADSVKGRFTISRDNSKNTMYLQMNSLRAEDTAVYYCVRDDSYDGGGHYGLHNWFDSWGQGTLVTVSSSTKGPSVFPLAPSSKSTSGGTAALGCLVKDYFPEPVTVSWNSGALTSGVHTFPAVLQSSGLYSLSSVVTVPSSSLGTQTYICNVNHKPSNTKVDKKVEPKSCDKTS</t>
+  </si>
+  <si>
+    <t>SVLTQPPSVSGAPGQRVTISCTGSSSNIGAGYDVHWYQQLPGTAPKLLIYGNSNRPSGVPDRFSGSKSGTSASLAITGLQAEDEADYYCQSYDSSVVVFGGGTKLEIKGTVAAPSVFIFPPSDEQLKSGTASVVCLLNNFYPREAKVQWKVDNALQSGNSQESVTEQDSKDSTYSLSSTLTLSKADYEKHKVYACEVTHQGLSSPVTKSFNRGEC</t>
+  </si>
+  <si>
+    <t>/data/structures/AVFluIgG03/5DUP_chainsAandB.pdb</t>
+  </si>
+  <si>
+    <t>AVFluIgG03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +470,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +570,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,7 +1109,7 @@
     <col min="7" max="7" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.1640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="48.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26" style="11" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="11" customWidth="1"/>
     <col min="11" max="11" width="26.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
@@ -1029,60 +1213,317 @@
         <v>26,27,28,29,30,31,32,33,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,1141024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+    <row r="4" spans="1:15" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+    <row r="5" spans="1:15" ht="85" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
+    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{4ADB250A-E579-42D3-A156-B66CF196BD00}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{FA3F9CDE-0B4C-D142-9B25-ED5D4316F66C}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{22F126CC-C0CD-B744-B252-E814B5F2FDEE}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{A7ADFEC1-F998-9F41-A620-67403FCF7ACB}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{C6564654-A189-FB4C-BD5F-6E7E8C6CD8CA}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{307E18AD-1494-1D44-BA4B-58FE05931ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Documents/GitHub/Influenza_H5-Antibody_Predictions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khale\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA7883-750B-234F-B1F1-AAAA2BA46D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95145FB-BEB2-4BCB-86A7-6A1F1032A906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72960" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{09342988-5878-3C4E-909A-D556431766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="142">
   <si>
     <t>antibody_id</t>
   </si>
@@ -428,13 +428,49 @@
   </si>
   <si>
     <t>AVFluIgG03</t>
+  </si>
+  <si>
+    <t>7YHK</t>
+  </si>
+  <si>
+    <t>RCSB PDB - 7YHK: Cryo-EM structure of the HA trimer of A/Beijing/262/1995(H1N1) in complex with neutralizing antibody 12H5</t>
+  </si>
+  <si>
+    <t>12H5</t>
+  </si>
+  <si>
+    <t>Fv</t>
+  </si>
+  <si>
+    <t>7FAH</t>
+  </si>
+  <si>
+    <t>RCSB PDB - 7FAH: Immune complex of head region of CA09 HA and neutralizing antibody 12H5</t>
+  </si>
+  <si>
+    <t>QIQLVQSGPELKKPGETVRISCKASGYTFTKNGMNWVQQAPGKGLKWVGWINTYTGEPSYADDFKGRFAFSLETSASTAYLQINNLKNEDMAAYFCARMVRDAMDFWGQGTSVTVSSAKTTPPSVYPLAPGSAAQTNSMVTLGCLVKGYFPEPVTVTWNSGSLSSGVHTFPAVLQSDLYTLSSSVTVPSSPRPSETVTCNVAHPASSTKVDKKIVPR</t>
+  </si>
+  <si>
+    <t>DIVLTQSPASLAVSLGQRATISCKASQSVDFDGYNYLNWYQQKPGQPPKLLIYAASNLESGIPARFSGSGSGTDFTLNIHPVEEEDAATYFCQQSNEDPYTFGGGTKLEIKRADAAPTVSIFPPSSEQLTSGGASVVCFLNNFYPKDINVKWKIDGSERQNGVLNSWTDQDSKDSTYSMSSTLTLTKDEYERHNSYTCEATHKTSTSPIVKSFNRNEC</t>
+  </si>
+  <si>
+    <t>QIQLVQSGPELKKPGETVRISCKASGYTFTKNGMNWVQQAPGKGLKWVGWINTYTGEPSYADDFKGRFAFSLETSASTAYLQINNLKNEDMAAYFCARMVRDAMDFWGQGTSVTVSS</t>
+  </si>
+  <si>
+    <t>DIVLTQSPASLAVSLGQRATISCKASQSVDFDGYNYLNWYQQKPGQPPKLLIYAASNLESGIPARFSGSGSGTDFTLNIHPVEEEDAATYFCQQSNEDPYTFGGGTKLEIKRA</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/12H5/7yhk.pdb</t>
+  </si>
+  <si>
+    <t>/data/structures/antibodies/12H5/7afh.pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,13 +481,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -472,10 +501,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -529,9 +571,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,30 +593,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,16 +966,16 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="27" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="207" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="199.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2" s="4" t="str">
         <f>_xlfn.CONCAT(B2,"__",C2)</f>
         <v>FLD194__EPI1650</v>
@@ -1047,7 +1096,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="4" t="str">
         <f>_xlfn.CONCAT(B3,"__",C3)</f>
         <v>FLD194__EPI4795</v>
@@ -1086,39 +1135,39 @@
       <c r="AA3" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF654A89-E9FD-6442-9FC8-DC69E573C848}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="48.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.1640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="37.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="255.69921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.796875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="26.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.19921875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="37.796875" style="6" customWidth="1"/>
     <col min="16" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,358 +1214,459 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="136" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="109.2">
+      <c r="A2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="7" t="str">
+      <c r="O2" s="9" t="str">
         <f>_xlfn.CONCAT(M2,REPLACE(N2,1,1,""))</f>
         <v>26,27,28,29,30,31,32,33,52,53,54,55,56,57,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,1141024,1025,1026,1027,1028,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1039,1055,1056,1057,1058,1059,1060,1061,1094,1095,1096,1097,1098,1099,1100,1101,1102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" ht="93.6">
+      <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="31.2">
+      <c r="A4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="85" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="31.2">
+      <c r="A5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="K5" s="9"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.2">
+      <c r="A6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" ht="31.2">
+      <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" ht="31.2">
+      <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" ht="31.2">
+      <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="34" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" ht="31.2">
+      <c r="A10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="34" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="31.2">
+      <c r="A11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="15" t="s">
         <v>128</v>
       </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" ht="31.2">
+      <c r="A12" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" ht="31.2">
+      <c r="A13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{4ADB250A-E579-42D3-A156-B66CF196BD00}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{FA3F9CDE-0B4C-D142-9B25-ED5D4316F66C}"/>
@@ -1524,6 +1674,8 @@
     <hyperlink ref="F7" r:id="rId4" xr:uid="{A7ADFEC1-F998-9F41-A620-67403FCF7ACB}"/>
     <hyperlink ref="F10" r:id="rId5" xr:uid="{C6564654-A189-FB4C-BD5F-6E7E8C6CD8CA}"/>
     <hyperlink ref="F11" r:id="rId6" xr:uid="{307E18AD-1494-1D44-BA4B-58FE05931ACF}"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.rcsb.org/structure/7YHK" xr:uid="{46317001-C5F0-424D-AEDF-4E182797D8EA}"/>
+    <hyperlink ref="F13" r:id="rId8" display="https://www.rcsb.org/structure/7FAH" xr:uid="{484B3DF6-9003-4E3F-B6D8-295D858FEDB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1537,19 +1689,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1571,11 +1723,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="78">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -1602,7 +1754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="93.6">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -1630,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>